--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.951738</v>
+        <v>3.883322333333334</v>
       </c>
       <c r="H2">
-        <v>5.855214</v>
+        <v>11.649967</v>
       </c>
       <c r="I2">
-        <v>0.1200622759026226</v>
+        <v>0.2039370428985499</v>
       </c>
       <c r="J2">
-        <v>0.1200622759026226</v>
+        <v>0.2039370428985498</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N2">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O2">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P2">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q2">
-        <v>61.73924032579</v>
+        <v>223.8837042322984</v>
       </c>
       <c r="R2">
-        <v>555.65316293211</v>
+        <v>2014.953338090686</v>
       </c>
       <c r="S2">
-        <v>0.06003522026859077</v>
+        <v>0.1390251251402491</v>
       </c>
       <c r="T2">
-        <v>0.06003522026859077</v>
+        <v>0.1390251251402491</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.951738</v>
+        <v>3.883322333333334</v>
       </c>
       <c r="H3">
-        <v>5.855214</v>
+        <v>11.649967</v>
       </c>
       <c r="I3">
-        <v>0.1200622759026226</v>
+        <v>0.2039370428985499</v>
       </c>
       <c r="J3">
-        <v>0.1200622759026226</v>
+        <v>0.2039370428985498</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>25.86682</v>
       </c>
       <c r="O3">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P3">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q3">
-        <v>16.82841851105333</v>
+        <v>33.48306659943778</v>
       </c>
       <c r="R3">
-        <v>151.45576659948</v>
+        <v>301.3475993949399</v>
       </c>
       <c r="S3">
-        <v>0.01636394951981764</v>
+        <v>0.02079198903747003</v>
       </c>
       <c r="T3">
-        <v>0.01636394951981764</v>
+        <v>0.02079198903747002</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.951738</v>
+        <v>3.883322333333334</v>
       </c>
       <c r="H4">
-        <v>5.855214</v>
+        <v>11.649967</v>
       </c>
       <c r="I4">
-        <v>0.1200622759026226</v>
+        <v>0.2039370428985499</v>
       </c>
       <c r="J4">
-        <v>0.1200622759026226</v>
+        <v>0.2039370428985498</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N4">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O4">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P4">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q4">
-        <v>8.387826962401334</v>
+        <v>10.83732743523733</v>
       </c>
       <c r="R4">
-        <v>75.49044266161201</v>
+        <v>97.535946917136</v>
       </c>
       <c r="S4">
-        <v>0.008156320625348499</v>
+        <v>0.006729658185869732</v>
       </c>
       <c r="T4">
-        <v>0.008156320625348499</v>
+        <v>0.00672965818586973</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.951738</v>
+        <v>3.883322333333334</v>
       </c>
       <c r="H5">
-        <v>5.855214</v>
+        <v>11.649967</v>
       </c>
       <c r="I5">
-        <v>0.1200622759026226</v>
+        <v>0.2039370428985499</v>
       </c>
       <c r="J5">
-        <v>0.1200622759026226</v>
+        <v>0.2039370428985498</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N5">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O5">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P5">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q5">
-        <v>36.51459847545934</v>
+        <v>60.21265768450178</v>
       </c>
       <c r="R5">
-        <v>328.631386279134</v>
+        <v>541.913919160516</v>
       </c>
       <c r="S5">
-        <v>0.03550678548886566</v>
+        <v>0.03739027053496104</v>
       </c>
       <c r="T5">
-        <v>0.03550678548886566</v>
+        <v>0.03739027053496103</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.654910333333333</v>
+        <v>9.654910333333332</v>
       </c>
       <c r="H6">
         <v>28.964731</v>
       </c>
       <c r="I6">
-        <v>0.5939273141455197</v>
+        <v>0.5070384824688307</v>
       </c>
       <c r="J6">
-        <v>0.5939273141455197</v>
+        <v>0.5070384824688307</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N6">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O6">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P6">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q6">
-        <v>305.4133441033683</v>
+        <v>556.6308701451329</v>
       </c>
       <c r="R6">
-        <v>2748.720096930315</v>
+        <v>5009.677831306197</v>
       </c>
       <c r="S6">
-        <v>0.2969838515903055</v>
+        <v>0.34565122389863</v>
       </c>
       <c r="T6">
-        <v>0.2969838515903055</v>
+        <v>0.34565122389863</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.654910333333333</v>
+        <v>9.654910333333332</v>
       </c>
       <c r="H7">
         <v>28.964731</v>
       </c>
       <c r="I7">
-        <v>0.5939273141455197</v>
+        <v>0.5070384824688307</v>
       </c>
       <c r="J7">
-        <v>0.5939273141455197</v>
+        <v>0.5070384824688307</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>25.86682</v>
       </c>
       <c r="O7">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P7">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q7">
-        <v>83.24727590282444</v>
+        <v>83.24727590282443</v>
       </c>
       <c r="R7">
-        <v>749.2254831254199</v>
+        <v>749.2254831254198</v>
       </c>
       <c r="S7">
-        <v>0.08094962813299345</v>
+        <v>0.05169408371931595</v>
       </c>
       <c r="T7">
-        <v>0.08094962813299345</v>
+        <v>0.05169408371931595</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.654910333333333</v>
+        <v>9.654910333333332</v>
       </c>
       <c r="H8">
         <v>28.964731</v>
       </c>
       <c r="I8">
-        <v>0.5939273141455197</v>
+        <v>0.5070384824688307</v>
       </c>
       <c r="J8">
-        <v>0.5939273141455197</v>
+        <v>0.5070384824688307</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N8">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O8">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P8">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q8">
-        <v>41.49312931013311</v>
+        <v>26.94430584400533</v>
       </c>
       <c r="R8">
-        <v>373.438163791198</v>
+        <v>242.498752596048</v>
       </c>
       <c r="S8">
-        <v>0.04034790749970386</v>
+        <v>0.0167316129801625</v>
       </c>
       <c r="T8">
-        <v>0.04034790749970386</v>
+        <v>0.01673161298016249</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.654910333333333</v>
+        <v>9.654910333333332</v>
       </c>
       <c r="H9">
         <v>28.964731</v>
       </c>
       <c r="I9">
-        <v>0.5939273141455197</v>
+        <v>0.5070384824688307</v>
       </c>
       <c r="J9">
-        <v>0.5939273141455197</v>
+        <v>0.5070384824688307</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N9">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O9">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P9">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q9">
-        <v>180.6314034661568</v>
+        <v>149.7037229913764</v>
       </c>
       <c r="R9">
-        <v>1625.682631195411</v>
+        <v>1347.333506922388</v>
       </c>
       <c r="S9">
-        <v>0.1756459269225168</v>
+        <v>0.09296156187072223</v>
       </c>
       <c r="T9">
-        <v>0.1756459269225168</v>
+        <v>0.09296156187072223</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.598460000000001</v>
+        <v>4.652793333333332</v>
       </c>
       <c r="H10">
-        <v>10.79538</v>
+        <v>13.95838</v>
       </c>
       <c r="I10">
-        <v>0.2213613186526835</v>
+        <v>0.2443466784802274</v>
       </c>
       <c r="J10">
-        <v>0.2213613186526835</v>
+        <v>0.2443466784802274</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N10">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O10">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P10">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q10">
-        <v>113.8299232493</v>
+        <v>268.2457228833377</v>
       </c>
       <c r="R10">
-        <v>1024.4693092437</v>
+        <v>2414.21150595004</v>
       </c>
       <c r="S10">
-        <v>0.1106881859797335</v>
+        <v>0.1665726200130137</v>
       </c>
       <c r="T10">
-        <v>0.1106881859797335</v>
+        <v>0.1665726200130137</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.598460000000001</v>
+        <v>4.652793333333332</v>
       </c>
       <c r="H11">
-        <v>10.79538</v>
+        <v>13.95838</v>
       </c>
       <c r="I11">
-        <v>0.2213613186526835</v>
+        <v>0.2443466784802274</v>
       </c>
       <c r="J11">
-        <v>0.2213613186526835</v>
+        <v>0.2443466784802274</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>25.86682</v>
       </c>
       <c r="O11">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P11">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q11">
-        <v>31.02690569906667</v>
+        <v>40.1176558835111</v>
       </c>
       <c r="R11">
-        <v>279.2421512916</v>
+        <v>361.0589029515999</v>
       </c>
       <c r="S11">
-        <v>0.03017055454629821</v>
+        <v>0.0249118717624557</v>
       </c>
       <c r="T11">
-        <v>0.03017055454629821</v>
+        <v>0.0249118717624557</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.598460000000001</v>
+        <v>4.652793333333332</v>
       </c>
       <c r="H12">
-        <v>10.79538</v>
+        <v>13.95838</v>
       </c>
       <c r="I12">
-        <v>0.2213613186526835</v>
+        <v>0.2443466784802274</v>
       </c>
       <c r="J12">
-        <v>0.2213613186526835</v>
+        <v>0.2443466784802274</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N12">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O12">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P12">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q12">
-        <v>15.46481126622667</v>
+        <v>12.98471785589333</v>
       </c>
       <c r="R12">
-        <v>139.18330139604</v>
+        <v>116.86246070304</v>
       </c>
       <c r="S12">
-        <v>0.01503797821095432</v>
+        <v>0.008063123803567884</v>
       </c>
       <c r="T12">
-        <v>0.01503797821095432</v>
+        <v>0.008063123803567883</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.598460000000001</v>
+        <v>4.652793333333332</v>
       </c>
       <c r="H13">
-        <v>10.79538</v>
+        <v>13.95838</v>
       </c>
       <c r="I13">
-        <v>0.2213613186526835</v>
+        <v>0.2443466784802274</v>
       </c>
       <c r="J13">
-        <v>0.2213613186526835</v>
+        <v>0.2443466784802274</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N13">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O13">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P13">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q13">
-        <v>67.32272570908668</v>
+        <v>72.14365128847109</v>
       </c>
       <c r="R13">
-        <v>605.9045313817801</v>
+        <v>649.29286159624</v>
       </c>
       <c r="S13">
-        <v>0.06546459991569746</v>
+        <v>0.04479906290119013</v>
       </c>
       <c r="T13">
-        <v>0.06546459991569746</v>
+        <v>0.04479906290119013</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.050938666666666</v>
+        <v>0.8507443333333334</v>
       </c>
       <c r="H14">
-        <v>3.152816</v>
+        <v>2.552233</v>
       </c>
       <c r="I14">
-        <v>0.06464909129917416</v>
+        <v>0.04467779615239207</v>
       </c>
       <c r="J14">
-        <v>0.06464909129917418</v>
+        <v>0.04467779615239207</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N14">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O14">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P14">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q14">
-        <v>33.24429555042666</v>
+        <v>49.04763919965711</v>
       </c>
       <c r="R14">
-        <v>299.19865995384</v>
+        <v>441.428752796914</v>
       </c>
       <c r="S14">
-        <v>0.03232674382632936</v>
+        <v>0.03045712594826006</v>
       </c>
       <c r="T14">
-        <v>0.03232674382632936</v>
+        <v>0.03045712594826006</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.050938666666666</v>
+        <v>0.8507443333333334</v>
       </c>
       <c r="H15">
-        <v>3.152816</v>
+        <v>2.552233</v>
       </c>
       <c r="I15">
-        <v>0.06464909129917416</v>
+        <v>0.04467779615239207</v>
       </c>
       <c r="J15">
-        <v>0.06464909129917418</v>
+        <v>0.04467779615239207</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>25.86682</v>
       </c>
       <c r="O15">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P15">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q15">
-        <v>9.061480440568886</v>
+        <v>7.335350178784444</v>
       </c>
       <c r="R15">
-        <v>81.55332396511999</v>
+        <v>66.01815160906</v>
       </c>
       <c r="S15">
-        <v>0.008811381081762912</v>
+        <v>0.004555034409717147</v>
       </c>
       <c r="T15">
-        <v>0.008811381081762914</v>
+        <v>0.004555034409717147</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.050938666666666</v>
+        <v>0.8507443333333334</v>
       </c>
       <c r="H16">
-        <v>3.152816</v>
+        <v>2.552233</v>
       </c>
       <c r="I16">
-        <v>0.06464909129917416</v>
+        <v>0.04467779615239207</v>
       </c>
       <c r="J16">
-        <v>0.06464909129917418</v>
+        <v>0.04467779615239207</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N16">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O16">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P16">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q16">
-        <v>4.516534332014221</v>
+        <v>2.374202837829334</v>
       </c>
       <c r="R16">
-        <v>40.648808988128</v>
+        <v>21.367825540464</v>
       </c>
       <c r="S16">
-        <v>0.004391876739044677</v>
+        <v>0.00147430938651559</v>
       </c>
       <c r="T16">
-        <v>0.004391876739044679</v>
+        <v>0.001474309386515589</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.050938666666666</v>
+        <v>0.8507443333333334</v>
       </c>
       <c r="H17">
-        <v>3.152816</v>
+        <v>2.552233</v>
       </c>
       <c r="I17">
-        <v>0.06464909129917416</v>
+        <v>0.04467779615239207</v>
       </c>
       <c r="J17">
-        <v>0.06464909129917418</v>
+        <v>0.04467779615239207</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N17">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O17">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P17">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q17">
-        <v>19.66175963969955</v>
+        <v>13.19117315612045</v>
       </c>
       <c r="R17">
-        <v>176.955836757296</v>
+        <v>118.720558405084</v>
       </c>
       <c r="S17">
-        <v>0.01911908965203721</v>
+        <v>0.008191326407899284</v>
       </c>
       <c r="T17">
-        <v>0.01911908965203722</v>
+        <v>0.008191326407899284</v>
       </c>
     </row>
   </sheetData>
